--- a/labs/Lab_13_python_oop/solution/payments_analytics_2023-12-24.xlsx
+++ b/labs/Lab_13_python_oop/solution/payments_analytics_2023-12-24.xlsx
@@ -25,7 +25,7 @@
     <t>Период, за который сделана выгрузка</t>
   </si>
   <si>
-    <t>2023-12-21</t>
+    <t>2023-12-24</t>
   </si>
   <si>
     <t>2022-11-22 - 2023-11-22</t>
